--- a/database/login_data.xlsx
+++ b/database/login_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IOC_Api_Test\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E0D89F-669A-4C7C-8F9D-49E806C0000D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ABF460-757F-45B5-9D59-EAA9E932EC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4708" yWindow="3531" windowWidth="18031" windowHeight="9391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,13 @@
   <si>
     <t>exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actual</t>
   </si>
 </sst>
 </file>
@@ -484,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -498,7 +505,7 @@
     <col min="5" max="5" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -514,8 +521,14 @@
       <c r="E1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -532,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -549,7 +562,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -566,7 +579,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -583,7 +596,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -600,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -617,7 +630,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -634,7 +647,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -651,7 +664,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -668,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -685,7 +698,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -702,7 +715,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -719,7 +732,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>

--- a/database/login_data.xlsx
+++ b/database/login_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>api</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,30 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>headers</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>expect_code</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>status_code</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>actual_code</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>actual_status</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -488,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://smart-uat.gtdreamlife.com:18762/api/auth/oauth/token</t>
+          <t>/api/auth/oauth/token</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,22 +503,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+          <t>{"Content-Type": "application/x-www-form-urlencoded", "Authorization": "Basic aW9jOmlvYw=="}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>200</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>200</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -527,7 +537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://smart-uat.gtdreamlife.com:18762/api/auth/oauth/token</t>
+          <t>/api/auth/oauth/token</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,22 +547,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>100001</v>
+          <t>{"Content-Type": "application/x-www-form-urlencoded", "Authorization": "Basic aW9jOmlvYw=="}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>401</v>
+        <v>100001</v>
       </c>
       <c r="G3" t="n">
-        <v>100001</v>
+        <v>401</v>
       </c>
       <c r="H3" t="n">
-        <v>401</v>
-      </c>
-      <c r="I3" t="inlineStr">
+        <v>100001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>401</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -566,7 +581,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://smart-uat.gtdreamlife.com:18762/api/auth/oauth/token</t>
+          <t>/api/auth/oauth/token</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -576,22 +591,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>100001</v>
+          <t>{"Content-Type": "application/x-www-form-urlencoded", "Authorization": "Basic aW9jOmlvYw=="}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>401</v>
+        <v>100001</v>
       </c>
       <c r="G4" t="n">
-        <v>100001</v>
+        <v>401</v>
       </c>
       <c r="H4" t="n">
-        <v>401</v>
-      </c>
-      <c r="I4" t="inlineStr">
+        <v>100001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>401</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -605,7 +625,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://smart-uat.gtdreamlife.com:18762/api/auth/oauth/token</t>
+          <t>/api/auth/oauth/token</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,22 +635,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>100001</v>
+          <t>{"Content-Type": "application/x-www-form-urlencoded", "Authorization": "Basic aW9jOmlvYw=="}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>401</v>
+        <v>100001</v>
       </c>
       <c r="G5" t="n">
-        <v>100001</v>
+        <v>401</v>
       </c>
       <c r="H5" t="n">
-        <v>401</v>
-      </c>
-      <c r="I5" t="inlineStr">
+        <v>100001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>401</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -644,7 +669,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://smart-uat.gtdreamlife.com:18762/api/auth/oauth/token</t>
+          <t>/api/auth/oauth/token</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -654,22 +679,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+          <t>{"Content-Type": "application/x-www-form-urlencoded", "Authorization": "Basic aW9jOmlvYw=="}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>200</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>200</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -683,7 +713,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://smart-uat.gtdreamlife.com:18762/api/auth/oauth/token</t>
+          <t>/api/auth/oauth/token</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -693,22 +723,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>100001</v>
+          <t>{"Content-Type": "application/x-www-form-urlencoded", "Authorization": "Basic aW9jOmlvYw=="}</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>401</v>
+        <v>100001</v>
       </c>
       <c r="G7" t="n">
-        <v>100001</v>
+        <v>401</v>
       </c>
       <c r="H7" t="n">
-        <v>401</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>100001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>401</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -722,7 +757,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://smart-uat.gtdreamlife.com:18762/api/auth/oauth/token</t>
+          <t>/api/auth/oauth/token</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -732,22 +767,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>100001</v>
+          <t>{"Content-Type": "application/x-www-form-urlencoded", "Authorization": "Basic aW9jOmlvYw=="}</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>401</v>
+        <v>100001</v>
       </c>
       <c r="G8" t="n">
-        <v>100001</v>
+        <v>401</v>
       </c>
       <c r="H8" t="n">
-        <v>401</v>
-      </c>
-      <c r="I8" t="inlineStr">
+        <v>100001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>401</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -761,7 +801,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://smart-uat.gtdreamlife.com:18762/api/auth/oauth/token</t>
+          <t>/api/auth/oauth/token</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,22 +811,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>100001</v>
+          <t>{"Content-Type": "application/x-www-form-urlencoded", "Authorization": "Basic aW9jOmlvYw=="}</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>401</v>
+        <v>100001</v>
       </c>
       <c r="G9" t="n">
-        <v>100001</v>
+        <v>401</v>
       </c>
       <c r="H9" t="n">
-        <v>401</v>
-      </c>
-      <c r="I9" t="inlineStr">
+        <v>100001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>401</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -800,7 +845,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://smart-uat.gtdreamlife.com:18762/api/auth/oauth/token</t>
+          <t>/api/auth/oauth/token</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -810,22 +855,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
+          <t>{"Content-Type": "application/x-www-form-urlencoded", "Authorization": "Basic aW9jOmlvYw=="}</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>200</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>200</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -839,7 +889,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://smart-uat.gtdreamlife.com:18762/api/auth/oauth/token</t>
+          <t>/api/auth/oauth/token</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -849,22 +899,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>100001</v>
+          <t>{"Content-Type": "application/x-www-form-urlencoded", "Authorization": "Basic aW9jOmlvYw=="}</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>401</v>
+        <v>100001</v>
       </c>
       <c r="G11" t="n">
-        <v>100001</v>
+        <v>401</v>
       </c>
       <c r="H11" t="n">
-        <v>401</v>
-      </c>
-      <c r="I11" t="inlineStr">
+        <v>100001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>401</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -878,7 +933,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://smart-uat.gtdreamlife.com:18762/api/auth/oauth/token</t>
+          <t>/api/auth/oauth/token</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -888,22 +943,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>100001</v>
+          <t>{"Content-Type": "application/x-www-form-urlencoded", "Authorization": "Basic aW9jOmlvYw=="}</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>401</v>
+        <v>100001</v>
       </c>
       <c r="G12" t="n">
-        <v>100001</v>
+        <v>401</v>
       </c>
       <c r="H12" t="n">
-        <v>401</v>
-      </c>
-      <c r="I12" t="inlineStr">
+        <v>100001</v>
+      </c>
+      <c r="I12" t="n">
+        <v>401</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -917,7 +977,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://smart-uat.gtdreamlife.com:18762/api/auth/oauth/token</t>
+          <t>/api/auth/oauth/token</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -927,22 +987,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>100001</v>
+          <t>{"Content-Type": "application/x-www-form-urlencoded", "Authorization": "Basic aW9jOmlvYw=="}</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>401</v>
+        <v>100001</v>
       </c>
       <c r="G13" t="n">
-        <v>100001</v>
+        <v>401</v>
       </c>
       <c r="H13" t="n">
-        <v>401</v>
-      </c>
-      <c r="I13" t="inlineStr">
+        <v>100001</v>
+      </c>
+      <c r="I13" t="n">
+        <v>401</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -956,7 +1021,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://smart-uat.gtdreamlife.com:18762/api/auth/oauth/token</t>
+          <t>/api/auth/oauth/token</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -966,22 +1031,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
+          <t>{"Content-Type": "application/x-www-form-urlencoded", "Authorization": "Basic aW9jOmlvYw=="}</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>999999</v>
       </c>
-      <c r="F14" t="n">
-        <v>401</v>
-      </c>
       <c r="G14" t="n">
+        <v>401</v>
+      </c>
+      <c r="H14" t="n">
         <v>999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>401</v>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" t="n">
+        <v>401</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
